--- a/bin/print/BillingReport.xlsx
+++ b/bin/print/BillingReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICS\bin\print\ori\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICS_Vendol\bin\print\ori\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Daily_Report" localSheetId="0">Sheet1!$A$1:$M$34</definedName>
+    <definedName name="Daily_Report1" localSheetId="0">Sheet1!$A$1:$N$75</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -24,8 +24,9 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Daily_Report" type="6" refreshedVersion="5" background="1" refreshOnLoad="1">
-    <textPr prompt="0" codePage="437" sourceFile="E:\ICS\bin\print\Daily_Report.txt" tab="0" delimiter="|">
-      <textFields count="13">
+    <textPr prompt="0" codePage="437" sourceFile="E:\ICS_Vendol\bin\print\Daily_Report.txt" tab="0" delimiter="|">
+      <textFields count="14">
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -52,9 +53,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,21 +78,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -101,99 +130,66 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="\-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="\-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -207,7 +203,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Daily_Report" refreshOnLoad="1" growShrinkType="overwriteClear" removeDataOnSave="1" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Daily_Report1" refreshOnLoad="1" growShrinkType="overwriteClear" fillFormulas="1" removeDataOnSave="1" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,206 +493,1141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M357"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:M72"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="8.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="12.5703125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="4" customWidth="1"/>
+    <col min="5" max="9" width="8.7109375" style="7" customWidth="1"/>
+    <col min="10" max="13" width="11.42578125" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="1"/>
-      <c r="M3"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="1"/>
-      <c r="M4"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="1"/>
-      <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="1"/>
-      <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="1"/>
-      <c r="M7"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="1"/>
-      <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="1"/>
-      <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="1"/>
-      <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="1"/>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="1"/>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="1"/>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="1"/>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="1"/>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="1"/>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="1"/>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="1"/>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="1"/>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="1"/>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="1"/>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="1"/>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="1"/>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="1"/>
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="1"/>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="1"/>
-      <c r="M26"/>
-    </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="1"/>
-      <c r="M27"/>
-    </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="1"/>
-      <c r="M28"/>
-    </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="1"/>
-      <c r="M29"/>
-    </row>
-    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="1"/>
-      <c r="M30"/>
-    </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="1"/>
-      <c r="M31"/>
-    </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="1"/>
-      <c r="M32"/>
-    </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="1"/>
-      <c r="M33"/>
-    </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="1"/>
-      <c r="M34"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="5"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+    </row>
+    <row r="75" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="5"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="5"/>
+    </row>
+    <row r="105" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="5"/>
+    </row>
+    <row r="107" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="5"/>
+    </row>
+    <row r="110" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="5"/>
+    </row>
+    <row r="111" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="5"/>
+    </row>
+    <row r="113" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="5"/>
+    </row>
+    <row r="114" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="5"/>
+    </row>
+    <row r="115" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="5"/>
+    </row>
+    <row r="116" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="5"/>
+    </row>
+    <row r="117" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="5"/>
+    </row>
+    <row r="118" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="5"/>
+    </row>
+    <row r="119" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="5"/>
+    </row>
+    <row r="120" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="5"/>
+    </row>
+    <row r="122" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="5"/>
+    </row>
+    <row r="123" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C123" s="5"/>
+    </row>
+    <row r="124" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="5"/>
+    </row>
+    <row r="125" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="5"/>
+    </row>
+    <row r="126" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C127" s="5"/>
+    </row>
+    <row r="128" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C128" s="5"/>
+    </row>
+    <row r="129" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C131" s="5"/>
+    </row>
+    <row r="132" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C132" s="5"/>
+    </row>
+    <row r="133" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="5"/>
+    </row>
+    <row r="134" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="5"/>
+    </row>
+    <row r="135" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C135" s="5"/>
+    </row>
+    <row r="136" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C136" s="5"/>
+    </row>
+    <row r="137" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C138" s="5"/>
+    </row>
+    <row r="139" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C139" s="5"/>
+    </row>
+    <row r="140" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C140" s="5"/>
+    </row>
+    <row r="141" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C141" s="5"/>
+    </row>
+    <row r="142" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="5"/>
+    </row>
+    <row r="143" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C143" s="5"/>
+    </row>
+    <row r="144" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C144" s="5"/>
+    </row>
+    <row r="145" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C145" s="5"/>
+    </row>
+    <row r="146" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C146" s="5"/>
+    </row>
+    <row r="147" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C147" s="5"/>
+    </row>
+    <row r="148" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="5"/>
+    </row>
+    <row r="149" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C150" s="5"/>
+    </row>
+    <row r="151" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C151" s="5"/>
+    </row>
+    <row r="152" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C152" s="5"/>
+    </row>
+    <row r="153" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C153" s="5"/>
+    </row>
+    <row r="154" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C154" s="5"/>
+    </row>
+    <row r="155" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C155" s="5"/>
+    </row>
+    <row r="156" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C156" s="5"/>
+    </row>
+    <row r="157" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C157" s="5"/>
+    </row>
+    <row r="158" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C158" s="5"/>
+    </row>
+    <row r="159" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C159" s="5"/>
+    </row>
+    <row r="160" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C160" s="5"/>
+    </row>
+    <row r="161" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C161" s="5"/>
+    </row>
+    <row r="162" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C162" s="5"/>
+    </row>
+    <row r="163" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="5"/>
+    </row>
+    <row r="166" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C166" s="5"/>
+    </row>
+    <row r="167" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C167" s="5"/>
+    </row>
+    <row r="168" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C168" s="5"/>
+    </row>
+    <row r="169" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C169" s="5"/>
+    </row>
+    <row r="170" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C170" s="5"/>
+    </row>
+    <row r="171" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C171" s="5"/>
+    </row>
+    <row r="172" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C172" s="5"/>
+    </row>
+    <row r="173" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C173" s="5"/>
+    </row>
+    <row r="174" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C174" s="5"/>
+    </row>
+    <row r="175" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C175" s="5"/>
+    </row>
+    <row r="176" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C176" s="5"/>
+    </row>
+    <row r="177" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C177" s="5"/>
+    </row>
+    <row r="178" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="5"/>
+    </row>
+    <row r="179" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="5"/>
+    </row>
+    <row r="180" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C180" s="5"/>
+    </row>
+    <row r="181" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C181" s="5"/>
+    </row>
+    <row r="182" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C182" s="5"/>
+    </row>
+    <row r="183" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C183" s="5"/>
+    </row>
+    <row r="184" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C184" s="5"/>
+    </row>
+    <row r="185" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C185" s="5"/>
+    </row>
+    <row r="186" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C186" s="5"/>
+    </row>
+    <row r="187" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C187" s="5"/>
+    </row>
+    <row r="188" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C188" s="5"/>
+    </row>
+    <row r="189" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C189" s="5"/>
+    </row>
+    <row r="190" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C190" s="5"/>
+    </row>
+    <row r="191" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C191" s="5"/>
+    </row>
+    <row r="192" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C192" s="5"/>
+    </row>
+    <row r="193" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C193" s="5"/>
+    </row>
+    <row r="194" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C194" s="5"/>
+    </row>
+    <row r="195" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C195" s="5"/>
+    </row>
+    <row r="196" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C196" s="5"/>
+    </row>
+    <row r="197" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C197" s="5"/>
+    </row>
+    <row r="198" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C198" s="5"/>
+    </row>
+    <row r="199" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C199" s="5"/>
+    </row>
+    <row r="200" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C200" s="5"/>
+    </row>
+    <row r="201" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C201" s="5"/>
+    </row>
+    <row r="202" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C202" s="5"/>
+    </row>
+    <row r="203" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C203" s="5"/>
+    </row>
+    <row r="204" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C204" s="5"/>
+    </row>
+    <row r="205" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C205" s="5"/>
+    </row>
+    <row r="206" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C206" s="5"/>
+    </row>
+    <row r="207" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C207" s="5"/>
+    </row>
+    <row r="208" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C208" s="5"/>
+    </row>
+    <row r="209" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C209" s="5"/>
+    </row>
+    <row r="210" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C210" s="5"/>
+    </row>
+    <row r="211" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C211" s="5"/>
+    </row>
+    <row r="212" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C212" s="5"/>
+    </row>
+    <row r="213" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C213" s="5"/>
+    </row>
+    <row r="214" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C214" s="5"/>
+    </row>
+    <row r="215" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C215" s="5"/>
+    </row>
+    <row r="216" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C216" s="5"/>
+    </row>
+    <row r="217" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C217" s="5"/>
+    </row>
+    <row r="218" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C218" s="5"/>
+    </row>
+    <row r="219" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C219" s="5"/>
+    </row>
+    <row r="220" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C220" s="5"/>
+    </row>
+    <row r="221" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C221" s="5"/>
+    </row>
+    <row r="222" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C222" s="5"/>
+    </row>
+    <row r="223" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C223" s="5"/>
+    </row>
+    <row r="224" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C224" s="5"/>
+    </row>
+    <row r="225" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C225" s="5"/>
+    </row>
+    <row r="226" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C226" s="5"/>
+    </row>
+    <row r="227" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C227" s="5"/>
+    </row>
+    <row r="228" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C228" s="5"/>
+    </row>
+    <row r="229" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C229" s="5"/>
+    </row>
+    <row r="230" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C230" s="5"/>
+    </row>
+    <row r="231" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C231" s="5"/>
+    </row>
+    <row r="232" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C232" s="5"/>
+    </row>
+    <row r="233" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C233" s="5"/>
+    </row>
+    <row r="234" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C234" s="5"/>
+    </row>
+    <row r="235" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C235" s="5"/>
+    </row>
+    <row r="236" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C236" s="5"/>
+    </row>
+    <row r="237" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C237" s="5"/>
+    </row>
+    <row r="238" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C238" s="5"/>
+    </row>
+    <row r="239" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C239" s="5"/>
+    </row>
+    <row r="240" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C240" s="5"/>
+    </row>
+    <row r="241" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C241" s="5"/>
+    </row>
+    <row r="242" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C242" s="5"/>
+    </row>
+    <row r="243" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C243" s="5"/>
+    </row>
+    <row r="244" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C244" s="5"/>
+    </row>
+    <row r="245" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C245" s="5"/>
+    </row>
+    <row r="246" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C246" s="5"/>
+    </row>
+    <row r="247" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C247" s="5"/>
+    </row>
+    <row r="248" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C248" s="5"/>
+    </row>
+    <row r="249" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C249" s="5"/>
+    </row>
+    <row r="250" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C250" s="5"/>
+    </row>
+    <row r="251" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C251" s="5"/>
+    </row>
+    <row r="252" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C252" s="5"/>
+    </row>
+    <row r="253" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C253" s="5"/>
+    </row>
+    <row r="254" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C254" s="5"/>
+    </row>
+    <row r="255" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C255" s="5"/>
+    </row>
+    <row r="256" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C256" s="5"/>
+    </row>
+    <row r="257" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C257" s="5"/>
+    </row>
+    <row r="258" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C258" s="5"/>
+    </row>
+    <row r="259" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C259" s="5"/>
+    </row>
+    <row r="260" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C260" s="5"/>
+    </row>
+    <row r="261" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C261" s="5"/>
+    </row>
+    <row r="262" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C262" s="5"/>
+    </row>
+    <row r="263" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C263" s="5"/>
+    </row>
+    <row r="264" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C264" s="5"/>
+    </row>
+    <row r="265" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C265" s="5"/>
+    </row>
+    <row r="266" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C266" s="5"/>
+    </row>
+    <row r="267" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C267" s="5"/>
+    </row>
+    <row r="268" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C268" s="5"/>
+    </row>
+    <row r="269" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C269" s="5"/>
+    </row>
+    <row r="270" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C270" s="5"/>
+    </row>
+    <row r="271" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C271" s="5"/>
+    </row>
+    <row r="272" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C272" s="5"/>
+    </row>
+    <row r="273" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C273" s="5"/>
+    </row>
+    <row r="274" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C274" s="5"/>
+    </row>
+    <row r="275" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C275" s="5"/>
+    </row>
+    <row r="276" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C276" s="5"/>
+    </row>
+    <row r="277" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C277" s="5"/>
+    </row>
+    <row r="278" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C278" s="5"/>
+    </row>
+    <row r="279" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C279" s="5"/>
+    </row>
+    <row r="280" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C280" s="5"/>
+    </row>
+    <row r="281" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C281" s="5"/>
+    </row>
+    <row r="282" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C282" s="5"/>
+    </row>
+    <row r="283" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C283" s="5"/>
+    </row>
+    <row r="284" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C284" s="5"/>
+    </row>
+    <row r="285" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C285" s="5"/>
+    </row>
+    <row r="286" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C286" s="5"/>
+    </row>
+    <row r="287" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C287" s="5"/>
+    </row>
+    <row r="288" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C288" s="5"/>
+    </row>
+    <row r="289" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C289" s="5"/>
+    </row>
+    <row r="290" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C290" s="5"/>
+    </row>
+    <row r="291" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C291" s="5"/>
+    </row>
+    <row r="292" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C292" s="5"/>
+    </row>
+    <row r="293" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C293" s="5"/>
+    </row>
+    <row r="294" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C294" s="5"/>
+    </row>
+    <row r="295" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C295" s="5"/>
+    </row>
+    <row r="296" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C296" s="5"/>
+    </row>
+    <row r="297" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C297" s="5"/>
+    </row>
+    <row r="298" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C298" s="5"/>
+    </row>
+    <row r="299" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C299" s="5"/>
+    </row>
+    <row r="300" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C300" s="5"/>
+    </row>
+    <row r="301" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C301" s="5"/>
+    </row>
+    <row r="302" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C302" s="5"/>
+    </row>
+    <row r="303" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C303" s="5"/>
+    </row>
+    <row r="304" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C304" s="5"/>
+    </row>
+    <row r="305" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C305" s="5"/>
+    </row>
+    <row r="306" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C306" s="5"/>
+    </row>
+    <row r="307" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C307" s="5"/>
+    </row>
+    <row r="308" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C308" s="5"/>
+    </row>
+    <row r="309" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C309" s="5"/>
+    </row>
+    <row r="310" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C310" s="5"/>
+    </row>
+    <row r="311" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C311" s="5"/>
+    </row>
+    <row r="312" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C312" s="5"/>
+    </row>
+    <row r="313" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C313" s="5"/>
+    </row>
+    <row r="314" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C314" s="5"/>
+    </row>
+    <row r="315" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C315" s="5"/>
+    </row>
+    <row r="316" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C316" s="5"/>
+    </row>
+    <row r="317" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C317" s="5"/>
+    </row>
+    <row r="318" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C318" s="5"/>
+    </row>
+    <row r="319" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C319" s="5"/>
+    </row>
+    <row r="320" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C320" s="5"/>
+    </row>
+    <row r="321" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C321" s="5"/>
+    </row>
+    <row r="322" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C322" s="5"/>
+    </row>
+    <row r="323" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C323" s="5"/>
+    </row>
+    <row r="324" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C324" s="5"/>
+    </row>
+    <row r="325" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C325" s="5"/>
+    </row>
+    <row r="326" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C326" s="5"/>
+    </row>
+    <row r="327" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C327" s="5"/>
+    </row>
+    <row r="328" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C328" s="5"/>
+    </row>
+    <row r="329" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C329" s="5"/>
+    </row>
+    <row r="330" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C330" s="5"/>
+    </row>
+    <row r="331" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C331" s="5"/>
+    </row>
+    <row r="332" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C332" s="5"/>
+    </row>
+    <row r="333" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C333" s="5"/>
+    </row>
+    <row r="334" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C334" s="5"/>
+    </row>
+    <row r="335" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C335" s="5"/>
+    </row>
+    <row r="336" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C336" s="5"/>
+    </row>
+    <row r="337" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C337" s="5"/>
+    </row>
+    <row r="338" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C338" s="5"/>
+    </row>
+    <row r="339" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C339" s="5"/>
+    </row>
+    <row r="340" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C340" s="5"/>
+    </row>
+    <row r="341" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C341" s="5"/>
+    </row>
+    <row r="342" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C342" s="5"/>
+    </row>
+    <row r="343" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C343" s="5"/>
+    </row>
+    <row r="344" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C344" s="5"/>
+    </row>
+    <row r="345" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C345" s="5"/>
+    </row>
+    <row r="346" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C346" s="5"/>
+    </row>
+    <row r="347" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C347" s="5"/>
+    </row>
+    <row r="348" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C348" s="5"/>
+    </row>
+    <row r="349" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C349" s="5"/>
+    </row>
+    <row r="350" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C350" s="5"/>
+    </row>
+    <row r="351" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C351" s="5"/>
+    </row>
+    <row r="352" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C352" s="5"/>
+    </row>
+    <row r="353" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C353" s="5"/>
+    </row>
+    <row r="354" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C354" s="5"/>
+    </row>
+    <row r="355" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C355" s="5"/>
+    </row>
+    <row r="356" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C356" s="5"/>
+    </row>
+    <row r="357" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C357" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.28125" top="0.53125" bottom="0.1875" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="E1:L1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.28125" top="0.61342592592592593" bottom="0.1875" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"-,Bold"Wijaya Holdings&amp;C&amp;"-,Bold"Billing Report&amp;RPage &amp;P of  &amp;N</oddHeader>
+    <oddHeader xml:space="preserve">&amp;L&amp;"-,Bold"&amp;12Wijaya Holdings&amp;C&amp;"-,Bold"&amp;12Billing Report&amp;R&amp;D &amp;T  </oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/bin/print/BillingReport.xlsx
+++ b/bin/print/BillingReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICS_Vendol\bin\print\ori\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICS\bin\print\ori\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Daily_Report1" localSheetId="0">Sheet1!$A$1:$N$75</definedName>
+    <definedName name="Daily_Report1" localSheetId="0">Sheet1!$A$1:$N$357</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -23,10 +23,9 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Daily_Report" type="6" refreshedVersion="5" background="1" refreshOnLoad="1">
-    <textPr prompt="0" codePage="437" sourceFile="E:\ICS_Vendol\bin\print\Daily_Report.txt" tab="0" delimiter="|">
-      <textFields count="14">
-        <textField/>
+  <connection id="1" name="Daily_Report" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="E:\ICS\bin\print\Daily_Report.txt" tab="0" delimiter="|">
+      <textFields count="13">
         <textField/>
         <textField/>
         <textField/>
@@ -47,7 +46,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -176,7 +182,61 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="\-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="\-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="\-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="\-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="\-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="\-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="\-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="\-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="\-"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -203,7 +263,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Daily_Report1" refreshOnLoad="1" growShrinkType="overwriteClear" fillFormulas="1" removeDataOnSave="1" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Daily_Report1" refreshOnLoad="1" growShrinkType="overwriteClear" fillFormulas="1" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,7 +556,7 @@
   <dimension ref="A1:M357"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:M72"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -723,63 +783,52 @@
     <row r="64" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-    </row>
-    <row r="75" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
     </row>
     <row r="81" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1598,29 +1647,66 @@
     <row r="352" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C352" s="5"/>
     </row>
-    <row r="353" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C353" s="5"/>
     </row>
-    <row r="354" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C356" s="5"/>
-    </row>
-    <row r="357" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C357" s="5"/>
+    <row r="356" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C356" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D356" s="4">
+        <v>858943.22</v>
+      </c>
+      <c r="E356" s="7">
+        <v>8928.42</v>
+      </c>
+      <c r="F356" s="7">
+        <v>0</v>
+      </c>
+      <c r="G356" s="7">
+        <v>17833.34</v>
+      </c>
+      <c r="H356" s="7">
+        <v>5508.21</v>
+      </c>
+      <c r="I356" s="7">
+        <v>3076.9</v>
+      </c>
+      <c r="J356" s="7">
+        <v>369227</v>
+      </c>
+      <c r="K356" s="7">
+        <v>0</v>
+      </c>
+      <c r="L356" s="7">
+        <v>0</v>
+      </c>
+      <c r="M356" s="7">
+        <v>489716.22</v>
+      </c>
+    </row>
+    <row r="357" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C357" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D357" s="4">
+        <v>876776.56</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:L1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
